--- a/奨学金返金書類/（３）H30様式1-3　指導教員等の推薦理由_下書き.xlsx
+++ b/奨学金返金書類/（３）H30様式1-3　指導教員等の推薦理由_下書き.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/奨学金返金書類/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F7A2F-FF9C-6C43-A6BD-EF64A956088B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B9635E-0443-B54C-BD48-929C06F5FC57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="460" windowWidth="18980" windowHeight="15280" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="4040" windowWidth="25600" windowHeight="15540" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指導教員等の推薦理由" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,12 @@
   <customWorkbookViews>
     <customWorkbookView name="独立行政法人　日本学生支援機構 - 個人用ビュー" guid="{F9F61C5C-FD04-446B-A378-123D9B6F112F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="770" tabRatio="853" activeSheetId="1"/>
   </customWorkbookViews>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>平成　　年　　月　　日</t>
     <rPh sb="0" eb="2">
@@ -203,13 +204,218 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>35-180643</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小松原　望</t>
     <rPh sb="0" eb="1">
       <t>ノゾm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>締め切り直前での追い込みの大きさに良いて優れた能力を持ちまた研究室の成果へ繋がった。</t>
+    <rPh sb="0" eb="1">
+      <t>オイコm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記奨学生を奨学金免除対象者として推薦する理由は３つある。研究へのひたむきな態度、研究室での振る舞い、</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理学系研究科物理学専攻</t>
+    <rPh sb="0" eb="2">
+      <t>ケンキュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>35-170643</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記奨学生は試料測定を率先して行い多種多用な種類の半導体レーザーサンプルの測定に精を出した。修士1年で</t>
+    <rPh sb="0" eb="5">
+      <t>イソk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は測定系の構築に力を入れ特に測定機器の自動化に尽力した。プログラミングについて自ら学び試行錯誤することで</t>
+    <rPh sb="0" eb="1">
+      <t>ソk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定機器を自動コントロールするような実験系を立ち上げた。この実験系を用いた評価測定により研究室全体の</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの次なる指針となる重要なデータを取り全体に貢献した。また修士2年においては同様の測定も行いながら</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記奨学生は試料測定を率先して行い多種多用な種類の半導体レーザーサンプルの測定に精を出した。修士1年では</t>
+  </si>
+  <si>
+    <t>測定系の構築に力を入れ特に測定機器の自動化に尽力した。プログラミングについて自ら学び試行錯誤することで測</t>
+  </si>
+  <si>
+    <t>定機器を自動コントロールするような実験系を立ち上げた。研究室では初めての測定系であり今後も使い続けること</t>
+  </si>
+  <si>
+    <t>のできる財産となる仕事である。自動化を行なった実験系を用いた迅速な評価測定により研究室全体のプロジェクト</t>
+  </si>
+  <si>
+    <t>の指針となる重要なデータを取り大きな貢献を果たした。修士2年においては同様の測定も行いさらなるデー</t>
+    <rPh sb="0" eb="1">
+      <t>オオキn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タ収集にひたむきに努めた。加えて今度はより肝心な試料作製にも率先して取り組んだ。測定装置の立ち上げで得た</t>
+  </si>
+  <si>
+    <t>知見からどのような試料が測定に適しているのかについて試行錯誤し試料のマウント方法を身につけた。また露光装</t>
+  </si>
+  <si>
+    <t>置や蒸着装置の使用方法習得を行い半導体プロセスを積極的に行うことで次なるデザインの試料作製にも貢献した。</t>
+  </si>
+  <si>
+    <t>特にフォトマスクのデザインに注力し初めて触れたにも関わらず短期間のうちにCADデータを自由に扱えるほど習熟</t>
+  </si>
+  <si>
+    <t>した。半導体プロセスや試料マウントにおいては学外の研究所の設備や企業での装置トレーニングに足繁く赴き、こ</t>
+  </si>
+  <si>
+    <t>の姿勢は奨学生の社交的な一面と測定を行うという目的への意欲の高さを表していた。以上のように上記奨学生は研</t>
+  </si>
+  <si>
+    <t>究を行う過程においてプログラミングスキルや装置取扱技術など様々な技能を独自、あるいは外部の方の協力を得な</t>
+  </si>
+  <si>
+    <t>がら習得し優れたデータを出した。</t>
+  </si>
+  <si>
+    <t>奨学生は研究室では他のメンバーとの交流を積極的に行った。後輩に対しては大学院でのとるべき授業や履修方法な</t>
+  </si>
+  <si>
+    <t>どの基本的な事項を指導した。研究に関してはテーマこそ異なったものの扱う分光装置や電流源などは同様であった</t>
+  </si>
+  <si>
+    <t>ためよく様子を見に行きアドバイスを行なった。海外からの研究員ともコミュニケーションをよく取り一緒に昼ご飯</t>
+  </si>
+  <si>
+    <t>いた。</t>
+  </si>
+  <si>
+    <t>を食べるなど非常に良い関係性を築いた。測定やプロセスを同時に行うこともよくありスムーズに行うことができて</t>
+    <rPh sb="0" eb="2">
+      <t>ヒジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推薦者は申請者が東京大学大学院理学系研究科へ入学することが決まった時から申請者のことを知る立場にある。</t>
+    <rPh sb="0" eb="1">
+      <t>シn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下、申請者の指導教員として貴機構の奨学金の返済免除資格を満たしていると思われる理由を述べる。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二に勉学への意欲・行動力が卓越している。具体的には</t>
+    <rPh sb="0" eb="1">
+      <t>ダイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者の今後の支援として返済免除措置についてご高配を賜るようお願い申し上げる。</t>
+    <rPh sb="0" eb="2">
+      <t>コンg</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)光物性研究討論会に積極的に参加し他の研究室の学生と議論を通じて自らの研究だけでなく異分野の理解も行った。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)本理学系研究科物理学専攻において学業成績評価の全てが「優」であったことである。</t>
+    <rPh sb="0" eb="1">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上の理由において上記奨学生は奨学金返済免除対象者に推薦する。</t>
+    <rPh sb="0" eb="2">
+      <t>リユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記奨学生はを奨学金返済免除者に推薦する理由は、研究へのひたむきな態度および研究室での円滑な人間関係構築</t>
+  </si>
+  <si>
+    <t>において優れていた点である。詳細は以下の通りである。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一に申請者の研究遂行能力が卓越している点である。具体的には下記の通りである。</t>
+    <rPh sb="0" eb="2">
+      <t>シンセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)学会に聴講者として参加し最先端の研究を学んだことである。</t>
+    <rPh sb="0" eb="2">
+      <t>ガッk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)研究活動の一環において大学外部の研究者あるいは会社員とスムーズなコミュニケーションをとり積極的に技術</t>
+  </si>
+  <si>
+    <t>(1)半導体レーザーの評価測定実験方法を自ら考え測定系を構築した。</t>
+    <rPh sb="0" eb="2">
+      <t>ブツr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>習得に取り組んだ。</t>
+    <rPh sb="0" eb="2">
+      <t>。</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -270,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -634,7 +840,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -645,7 +851,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -658,10 +864,25 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -670,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -733,6 +954,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -784,36 +1008,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -825,9 +1061,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,18 +1525,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:AD6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6:AH45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.1640625" style="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2" max="29" width="3.1640625" style="1"/>
+    <col min="30" max="30" width="6.5" style="1" customWidth="1"/>
+    <col min="31" max="33" width="3.1640625" style="1"/>
+    <col min="34" max="34" width="96.33203125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="3.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="7.5" customHeight="1">
+    <row r="1" spans="1:34" ht="7.5" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1335,8 +1573,8 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" ht="4.5" customHeight="1"/>
-    <row r="3" spans="1:30" ht="16.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:34" ht="4.5" customHeight="1"/>
+    <row r="3" spans="1:34" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -1344,889 +1582,986 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1">
+      <c r="A4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="14">
         <v>6</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15">
+        <v>7</v>
+      </c>
       <c r="H4" s="16">
         <v>0</v>
       </c>
       <c r="I4" s="15">
         <v>6</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="46" t="s">
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1</v>
+      </c>
+      <c r="N4" s="19">
+        <v>8</v>
+      </c>
+      <c r="O4" s="20">
+        <v>7</v>
+      </c>
+      <c r="P4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="25" t="s">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="27"/>
+    </row>
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="26"/>
-    </row>
-    <row r="5" spans="1:30" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A5" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="41" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="39"/>
+    </row>
+    <row r="6" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="42"/>
+      <c r="AH6" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="38"/>
-    </row>
-    <row r="6" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="40"/>
-    </row>
-    <row r="7" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="24"/>
-    </row>
-    <row r="8" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="24"/>
-    </row>
-    <row r="9" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="24"/>
-    </row>
-    <row r="10" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="24"/>
-    </row>
-    <row r="11" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="24"/>
-    </row>
-    <row r="12" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="24"/>
-    </row>
-    <row r="13" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="24"/>
-    </row>
-    <row r="14" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="24"/>
-    </row>
-    <row r="15" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="24"/>
-    </row>
-    <row r="16" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="24"/>
-    </row>
-    <row r="17" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="24"/>
-    </row>
-    <row r="18" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="24"/>
-    </row>
-    <row r="19" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="24"/>
-    </row>
-    <row r="20" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="24"/>
-    </row>
-    <row r="21" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="24"/>
-    </row>
-    <row r="22" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="24"/>
-    </row>
-    <row r="23" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="24"/>
-    </row>
-    <row r="24" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="24"/>
-    </row>
-    <row r="25" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="24"/>
-    </row>
-    <row r="26" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="30"/>
-    </row>
-    <row r="27" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="30"/>
-    </row>
-    <row r="28" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="30"/>
-    </row>
-    <row r="29" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="30"/>
-    </row>
-    <row r="30" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-    </row>
-    <row r="31" spans="1:30" ht="8.25" customHeight="1">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="53"/>
+      <c r="AH7" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="25"/>
+      <c r="AH8" s="22"/>
+    </row>
+    <row r="9" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="25"/>
+      <c r="AH9" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="25"/>
+      <c r="AH10" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="25"/>
+      <c r="AH11" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="25"/>
+      <c r="AH12" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="25"/>
+      <c r="AH13" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="25"/>
+      <c r="AH14" s="22"/>
+    </row>
+    <row r="15" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="25"/>
+      <c r="AH15" s="22"/>
+    </row>
+    <row r="16" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="25"/>
+      <c r="AH16" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="25"/>
+      <c r="AH17" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="25"/>
+      <c r="AH18" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="25"/>
+      <c r="AH19" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="25"/>
+      <c r="AH20" s="22"/>
+    </row>
+    <row r="21" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="25"/>
+      <c r="AH21" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="25"/>
+      <c r="AH22" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="25"/>
+      <c r="AH23" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="25"/>
+      <c r="AH24" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="25"/>
+      <c r="AH25" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="31"/>
+      <c r="AH26" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="31"/>
+      <c r="AH27" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="31"/>
+      <c r="AH28" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="20.25" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="31"/>
+      <c r="AH29" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="56"/>
+      <c r="AH30" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="8.25" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2257,8 +2592,11 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="11"/>
-    </row>
-    <row r="32" spans="1:30" ht="20" customHeight="1">
+      <c r="AH31" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="20" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
@@ -2291,8 +2629,11 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="6"/>
-    </row>
-    <row r="33" spans="1:30" ht="20" customHeight="1">
+      <c r="AH32" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="20" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2323,18 +2664,21 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="6"/>
-    </row>
-    <row r="34" spans="1:30" ht="20" customHeight="1">
+      <c r="AH33" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="20" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -2357,8 +2701,11 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="6"/>
-    </row>
-    <row r="35" spans="1:30" ht="20" customHeight="1">
+      <c r="AH34" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="20" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2389,8 +2736,11 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="6"/>
-    </row>
-    <row r="36" spans="1:30" ht="20" customHeight="1">
+      <c r="AH35" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="20" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
@@ -2423,8 +2773,11 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="6"/>
-    </row>
-    <row r="37" spans="1:30" ht="20" customHeight="1">
+      <c r="AH36" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" ht="20" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -2457,8 +2810,11 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="6"/>
-    </row>
-    <row r="38" spans="1:30" ht="20" customHeight="1">
+      <c r="AH37" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" ht="20" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2489,8 +2845,11 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="6"/>
-    </row>
-    <row r="39" spans="1:30" ht="20" customHeight="1">
+      <c r="AH38" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" ht="20" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2508,23 +2867,26 @@
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="6"/>
-    </row>
-    <row r="40" spans="1:30" ht="20" customHeight="1">
+      <c r="AH39" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="20" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2555,8 +2917,11 @@
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="6"/>
-    </row>
-    <row r="41" spans="1:30" ht="20" customHeight="1">
+      <c r="AH40" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" ht="20" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2575,22 +2940,25 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="6"/>
-    </row>
-    <row r="42" spans="1:30" ht="20" customHeight="1" thickBot="1">
+      <c r="AH41" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" ht="20" customHeight="1" thickBot="1">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2621,9 +2989,19 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="9"/>
-    </row>
-    <row r="43" spans="1:30" ht="16.5" customHeight="1">
+      <c r="AH42" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="16.5" customHeight="1">
       <c r="A43" s="13"/>
+      <c r="AH43" s="22"/>
+    </row>
+    <row r="44" spans="1:34" ht="16.5" customHeight="1">
+      <c r="AH44" s="22"/>
+    </row>
+    <row r="45" spans="1:34" ht="16.5" customHeight="1">
+      <c r="AH45" s="22"/>
     </row>
   </sheetData>
   <customSheetViews>
